--- a/Collect/CD/CD-12.xlsx
+++ b/Collect/CD/CD-12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CH-UIT\HighSchoolChemistryQA_Dataset\Collect\CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Master-UIT\HighSchoolChemistryQA_Dataset\Collect\CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6131C5E-D655-4B40-B9E8-BA02348F4018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993223AB-7518-460A-BACC-0B21D54CE728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Câu trả lời biểu mẫu 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="760">
   <si>
     <t>Answer</t>
   </si>
@@ -4203,24 +4203,24 @@
   <dimension ref="A1:J299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C297" sqref="C297"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D286" sqref="D286"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="37.5703125" customWidth="1"/>
-    <col min="10" max="16" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="9" width="37.5546875" customWidth="1"/>
+    <col min="10" max="16" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>749</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>751</v>
       </c>
@@ -4278,7 +4278,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>751</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>751</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>751</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>751</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>751</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>751</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>751</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>751</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>751</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>751</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>751</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>751</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>751</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>751</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>751</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>751</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>751</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>751</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>751</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>751</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>751</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>751</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>751</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>751</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>751</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>751</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>751</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>751</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>751</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>751</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>751</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>751</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>751</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>751</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>751</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>751</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>751</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>751</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>751</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>751</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>751</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>751</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>751</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>751</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>751</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>751</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>751</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>751</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>751</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>751</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>751</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>751</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>751</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>751</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>751</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>751</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>751</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>751</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>751</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>751</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>751</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>751</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>751</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>751</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>751</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>751</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>751</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>751</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>751</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>751</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>751</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>751</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>751</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>751</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>751</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>751</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>751</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>751</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>751</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>751</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>751</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>751</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>751</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>751</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>751</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>751</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>751</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>751</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>751</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>751</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>751</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>751</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>751</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>751</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>751</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>751</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>751</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>751</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>751</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>751</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>751</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>751</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>751</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>751</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>751</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>751</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>751</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>751</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>751</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>751</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>751</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>751</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>751</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>751</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>751</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>751</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>751</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>751</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>751</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>751</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>751</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>751</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>751</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>751</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>751</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>751</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>751</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>751</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>751</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>751</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>751</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>751</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>751</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>751</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>751</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>751</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>751</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>751</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>751</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>751</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>751</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>751</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>751</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>751</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>751</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>751</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>751</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>751</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>751</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>751</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>751</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>751</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>751</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>751</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>751</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>751</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>751</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>751</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>751</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>751</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>751</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>751</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>751</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>751</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>751</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>751</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>751</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>751</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>751</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>751</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>751</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>751</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>751</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>751</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>751</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>751</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>751</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>751</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>751</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>751</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>751</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>751</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>751</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>751</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>751</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>751</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>751</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>751</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>751</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>751</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>751</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>751</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>751</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>751</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>751</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>751</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>751</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>751</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>751</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>751</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>751</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>751</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>751</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>751</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>751</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>751</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>751</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>751</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>751</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>751</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>751</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>751</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>751</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>751</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>751</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>751</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>751</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>751</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>751</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>751</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>751</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>751</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>751</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>751</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>751</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>751</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>751</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>751</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>751</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>751</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>751</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>751</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>751</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>751</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>751</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>751</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>751</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>751</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>751</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>751</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>751</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>751</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>751</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>751</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>751</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>751</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>751</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>751</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>751</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>751</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>751</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>751</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>751</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>751</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>751</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>751</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>751</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>751</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>751</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>751</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>751</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>751</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>751</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>751</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>751</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>751</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>751</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>751</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>751</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>751</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>751</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>751</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>751</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>751</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>751</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>751</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>751</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>751</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>751</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>751</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>751</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>751</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>751</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>751</v>
       </c>
@@ -11163,6 +11163,9 @@
       <c r="C286" s="2" t="s">
         <v>643</v>
       </c>
+      <c r="D286" s="2" t="s">
+        <v>715</v>
+      </c>
       <c r="E286" s="3" t="s">
         <v>719</v>
       </c>
@@ -11176,7 +11179,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>751</v>
       </c>
@@ -11199,7 +11202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>751</v>
       </c>
@@ -11222,7 +11225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>751</v>
       </c>
@@ -11245,7 +11248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>751</v>
       </c>
@@ -11268,7 +11271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>751</v>
       </c>
@@ -11291,7 +11294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>751</v>
       </c>
@@ -11314,7 +11317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>751</v>
       </c>
@@ -11337,7 +11340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>751</v>
       </c>
@@ -11360,7 +11363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>751</v>
       </c>
@@ -11383,7 +11386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>751</v>
       </c>
@@ -11406,7 +11409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>751</v>
       </c>
@@ -11429,7 +11432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>751</v>
       </c>
@@ -11452,7 +11455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>751</v>
       </c>
@@ -11495,7 +11498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
